--- a/data_xlsx/期货官方价_LME3个月铜.xlsx
+++ b/data_xlsx/期货官方价_LME3个月铜.xlsx
@@ -27490,8 +27490,184 @@
         <v>8626.0</v>
       </c>
     </row>
+    <row r="3427">
+      <c r="A3427" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3427" s="2" t="n">
+        <v>8575.0</v>
+      </c>
+    </row>
     <row r="3428">
-      <c r="A3428" s="3" t="inlineStr">
+      <c r="A3428" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3428" s="2" t="n">
+        <v>8618.0</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3429" s="2" t="n">
+        <v>8625.0</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3430" s="2" t="n">
+        <v>8670.0</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3431" s="2" t="n">
+        <v>8765.0</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3432" s="2" t="n">
+        <v>8588.0</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3433" s="2" t="n">
+        <v>8516.0</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3434" s="2" t="n">
+        <v>8500.0</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3435" s="2" t="n">
+        <v>8540.0</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3436" s="2" t="n">
+        <v>8323.0</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3437" s="2" t="n">
+        <v>8425.0</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3438" s="2" t="n">
+        <v>8464.0</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3439" s="2" t="n">
+        <v>8275.5</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3440" s="2" t="n">
+        <v>8295.0</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3441" s="2" t="n">
+        <v>8181.0</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3442" s="2" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3443" s="2" t="n">
+        <v>8256.0</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3444" s="2" t="n">
+        <v>8210.0</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3445" s="2" t="n">
+        <v>8273.0</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3446" s="2" t="n">
+        <v>8371.0</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3447" s="2" t="n">
+        <v>8404.0</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3448" s="2" t="n">
+        <v>8392.0</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
